--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.869595666666667</v>
+        <v>27.57445233333333</v>
       </c>
       <c r="H2">
-        <v>29.608787</v>
+        <v>82.72335699999999</v>
       </c>
       <c r="I2">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="J2">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N2">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q2">
-        <v>6.895235098986001</v>
+        <v>45.09378870847555</v>
       </c>
       <c r="R2">
-        <v>62.05711589087401</v>
+        <v>405.84409837628</v>
       </c>
       <c r="S2">
-        <v>0.0001573750712253464</v>
+        <v>0.0008954627024931296</v>
       </c>
       <c r="T2">
-        <v>0.0001573750712253464</v>
+        <v>0.0008954627024931295</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.869595666666667</v>
+        <v>27.57445233333333</v>
       </c>
       <c r="H3">
-        <v>29.608787</v>
+        <v>82.72335699999999</v>
       </c>
       <c r="I3">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="J3">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
         <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q3">
-        <v>453.1759438736241</v>
+        <v>1266.118581246499</v>
       </c>
       <c r="R3">
-        <v>4078.583494862617</v>
+        <v>11395.06723121849</v>
       </c>
       <c r="S3">
-        <v>0.01034317110597333</v>
+        <v>0.02514230892794027</v>
       </c>
       <c r="T3">
-        <v>0.01034317110597333</v>
+        <v>0.02514230892794026</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.869595666666667</v>
+        <v>27.57445233333333</v>
       </c>
       <c r="H4">
-        <v>29.608787</v>
+        <v>82.72335699999999</v>
       </c>
       <c r="I4">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="J4">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N4">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q4">
-        <v>2.300270473512556</v>
+        <v>23.1615564712001</v>
       </c>
       <c r="R4">
-        <v>20.702434261613</v>
+        <v>208.454008240801</v>
       </c>
       <c r="S4">
-        <v>5.250078125107519E-05</v>
+        <v>0.0004599371786152415</v>
       </c>
       <c r="T4">
-        <v>5.250078125107519E-05</v>
+        <v>0.0004599371786152415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.869595666666667</v>
+        <v>27.57445233333333</v>
       </c>
       <c r="H5">
-        <v>29.608787</v>
+        <v>82.72335699999999</v>
       </c>
       <c r="I5">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="J5">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N5">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q5">
-        <v>195.2860015174192</v>
+        <v>209.3184857044192</v>
       </c>
       <c r="R5">
-        <v>1757.574013656773</v>
+        <v>1883.866371339773</v>
       </c>
       <c r="S5">
-        <v>0.004457157436537083</v>
+        <v>0.004156601214025275</v>
       </c>
       <c r="T5">
-        <v>0.004457157436537083</v>
+        <v>0.004156601214025275</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.869595666666667</v>
+        <v>27.57445233333333</v>
       </c>
       <c r="H6">
-        <v>29.608787</v>
+        <v>82.72335699999999</v>
       </c>
       <c r="I6">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="J6">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N6">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q6">
-        <v>25.06795052702778</v>
+        <v>131.8184836780497</v>
       </c>
       <c r="R6">
-        <v>225.61155474325</v>
+        <v>1186.366353102447</v>
       </c>
       <c r="S6">
-        <v>0.0005721444509186657</v>
+        <v>0.002617622936852654</v>
       </c>
       <c r="T6">
-        <v>0.0005721444509186657</v>
+        <v>0.002617622936852654</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.869595666666667</v>
+        <v>27.57445233333333</v>
       </c>
       <c r="H7">
-        <v>29.608787</v>
+        <v>82.72335699999999</v>
       </c>
       <c r="I7">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="J7">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N7">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q7">
-        <v>4.324540994072</v>
+        <v>4.760646471992999</v>
       </c>
       <c r="R7">
-        <v>38.920868946648</v>
+        <v>42.845818247937</v>
       </c>
       <c r="S7">
-        <v>9.870221061194786E-05</v>
+        <v>9.453588792427172E-05</v>
       </c>
       <c r="T7">
-        <v>9.870221061194786E-05</v>
+        <v>9.453588792427171E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>244.4161783333333</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H8">
-        <v>733.2485349999999</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I8">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="J8">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N8">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q8">
-        <v>170.75745233373</v>
+        <v>399.7051825168223</v>
       </c>
       <c r="R8">
-        <v>1536.81707100357</v>
+        <v>3597.3466426514</v>
       </c>
       <c r="S8">
-        <v>0.003897324143049355</v>
+        <v>0.007937259059134028</v>
       </c>
       <c r="T8">
-        <v>0.003897324143049355</v>
+        <v>0.007937259059134028</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>244.4161783333333</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H9">
-        <v>733.2485349999999</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I9">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="J9">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
         <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q9">
-        <v>11222.70213037018</v>
+        <v>11222.70213037019</v>
       </c>
       <c r="R9">
         <v>101004.3191733317</v>
       </c>
       <c r="S9">
-        <v>0.2561440649598132</v>
+        <v>0.2228579914609803</v>
       </c>
       <c r="T9">
-        <v>0.2561440649598132</v>
+        <v>0.2228579914609803</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>244.4161783333333</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H10">
-        <v>733.2485349999999</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I10">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="J10">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N10">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q10">
-        <v>56.96518249149611</v>
+        <v>205.3008722896394</v>
       </c>
       <c r="R10">
-        <v>512.6866424234649</v>
+        <v>1847.707850606755</v>
       </c>
       <c r="S10">
-        <v>0.00130015866366651</v>
+        <v>0.004076820315834852</v>
       </c>
       <c r="T10">
-        <v>0.00130015866366651</v>
+        <v>0.004076820315834852</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>244.4161783333333</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H11">
-        <v>733.2485349999999</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I11">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="J11">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N11">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q11">
-        <v>4836.171590503029</v>
+        <v>1855.370460741624</v>
       </c>
       <c r="R11">
-        <v>43525.54431452727</v>
+        <v>16698.33414667462</v>
       </c>
       <c r="S11">
-        <v>0.1103795356630169</v>
+        <v>0.03684354529716747</v>
       </c>
       <c r="T11">
-        <v>0.1103795356630169</v>
+        <v>0.03684354529716746</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>244.4161783333333</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H12">
-        <v>733.2485349999999</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I12">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="J12">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N12">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q12">
-        <v>620.7967249518055</v>
+        <v>1168.421030626832</v>
       </c>
       <c r="R12">
-        <v>5587.17052456625</v>
+        <v>10515.78927564149</v>
       </c>
       <c r="S12">
-        <v>0.01416890467159262</v>
+        <v>0.02320225209948391</v>
       </c>
       <c r="T12">
-        <v>0.01416890467159262</v>
+        <v>0.02320225209948391</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>244.4161783333333</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H13">
-        <v>733.2485349999999</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I13">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="J13">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N13">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q13">
-        <v>107.09534802796</v>
+        <v>42.197719940715</v>
       </c>
       <c r="R13">
-        <v>963.8581322516399</v>
+        <v>379.779479466435</v>
       </c>
       <c r="S13">
-        <v>0.002444316659526518</v>
+        <v>0.0008379531953157613</v>
       </c>
       <c r="T13">
-        <v>0.002444316659526518</v>
+        <v>0.0008379531953157612</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>91.68861033333333</v>
+        <v>145.2603533333333</v>
       </c>
       <c r="H14">
-        <v>275.065831</v>
+        <v>435.78106</v>
       </c>
       <c r="I14">
-        <v>0.1456770701148412</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="J14">
-        <v>0.1456770701148413</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N14">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q14">
-        <v>64.05678059161801</v>
+        <v>237.5510346224889</v>
       </c>
       <c r="R14">
-        <v>576.5110253245621</v>
+        <v>2137.9593116024</v>
       </c>
       <c r="S14">
-        <v>0.001462015473490491</v>
+        <v>0.004717237063806789</v>
       </c>
       <c r="T14">
-        <v>0.001462015473490491</v>
+        <v>0.004717237063806788</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>91.68861033333333</v>
+        <v>145.2603533333333</v>
       </c>
       <c r="H15">
-        <v>275.065831</v>
+        <v>435.78106</v>
       </c>
       <c r="I15">
-        <v>0.1456770701148412</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="J15">
-        <v>0.1456770701148413</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N15">
         <v>137.749091</v>
       </c>
       <c r="O15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q15">
-        <v>4210.007576156624</v>
+        <v>6669.82721000183</v>
       </c>
       <c r="R15">
-        <v>37890.06818540962</v>
+        <v>60028.44489001647</v>
       </c>
       <c r="S15">
-        <v>0.09608812935969796</v>
+        <v>0.1324479860683758</v>
       </c>
       <c r="T15">
-        <v>0.09608812935969797</v>
+        <v>0.1324479860683758</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>91.68861033333333</v>
+        <v>145.2603533333333</v>
       </c>
       <c r="H16">
-        <v>275.065831</v>
+        <v>435.78106</v>
       </c>
       <c r="I16">
-        <v>0.1456770701148412</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="J16">
-        <v>0.1456770701148413</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N16">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q16">
-        <v>21.36952821881878</v>
+        <v>122.0135158473978</v>
       </c>
       <c r="R16">
-        <v>192.325753969369</v>
+        <v>1098.12164262658</v>
       </c>
       <c r="S16">
-        <v>0.0004877326120443979</v>
+        <v>0.002422918006462907</v>
       </c>
       <c r="T16">
-        <v>0.000487732612044398</v>
+        <v>0.002422918006462906</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>91.68861033333333</v>
+        <v>145.2603533333333</v>
       </c>
       <c r="H17">
-        <v>275.065831</v>
+        <v>435.78106</v>
       </c>
       <c r="I17">
-        <v>0.1456770701148412</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="J17">
-        <v>0.1456770701148413</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N17">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q17">
-        <v>1814.208271688272</v>
+        <v>1102.675651543816</v>
       </c>
       <c r="R17">
-        <v>16327.87444519445</v>
+        <v>9924.08086389434</v>
       </c>
       <c r="S17">
-        <v>0.04140702265779758</v>
+        <v>0.02189669458222327</v>
       </c>
       <c r="T17">
-        <v>0.04140702265779758</v>
+        <v>0.02189669458222327</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>91.68861033333333</v>
+        <v>145.2603533333333</v>
       </c>
       <c r="H18">
-        <v>275.065831</v>
+        <v>435.78106</v>
       </c>
       <c r="I18">
-        <v>0.1456770701148412</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="J18">
-        <v>0.1456770701148413</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N18">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q18">
-        <v>232.8814295291389</v>
+        <v>694.4108729148068</v>
       </c>
       <c r="R18">
-        <v>2095.93286576225</v>
+        <v>6249.697856233261</v>
       </c>
       <c r="S18">
-        <v>0.005315225809283624</v>
+        <v>0.01378946091491383</v>
       </c>
       <c r="T18">
-        <v>0.005315225809283625</v>
+        <v>0.01378946091491383</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>91.68861033333333</v>
+        <v>145.2603533333333</v>
       </c>
       <c r="H19">
-        <v>275.065831</v>
+        <v>435.78106</v>
       </c>
       <c r="I19">
-        <v>0.1456770701148412</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="J19">
-        <v>0.1456770701148413</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N19">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q19">
-        <v>40.17501501253599</v>
+        <v>25.07876422194</v>
       </c>
       <c r="R19">
-        <v>361.575135112824</v>
+        <v>225.70887799746</v>
       </c>
       <c r="S19">
-        <v>0.0009169442025271906</v>
+        <v>0.0004980086754419352</v>
       </c>
       <c r="T19">
-        <v>0.0009169442025271908</v>
+        <v>0.0004980086754419351</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>73.35356366666666</v>
+        <v>62.503002</v>
       </c>
       <c r="H20">
-        <v>220.060691</v>
+        <v>187.509006</v>
       </c>
       <c r="I20">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="J20">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N20">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q20">
-        <v>51.247293598698</v>
+        <v>102.21407597736</v>
       </c>
       <c r="R20">
-        <v>461.225642388282</v>
+        <v>919.92668379624</v>
       </c>
       <c r="S20">
-        <v>0.001169655039229535</v>
+        <v>0.002029745012095683</v>
       </c>
       <c r="T20">
-        <v>0.001169655039229535</v>
+        <v>0.002029745012095683</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>73.35356366666666</v>
+        <v>62.503002</v>
       </c>
       <c r="H21">
-        <v>220.060691</v>
+        <v>187.509006</v>
       </c>
       <c r="I21">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="J21">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N21">
         <v>137.749091</v>
       </c>
       <c r="O21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q21">
-        <v>3368.128905564653</v>
+        <v>2869.910570090395</v>
       </c>
       <c r="R21">
-        <v>30313.16015008188</v>
+        <v>25829.19513081355</v>
       </c>
       <c r="S21">
-        <v>0.07687330726218961</v>
+        <v>0.05699006334599074</v>
       </c>
       <c r="T21">
-        <v>0.07687330726218961</v>
+        <v>0.05699006334599073</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>73.35356366666666</v>
+        <v>62.503002</v>
       </c>
       <c r="H22">
-        <v>220.060691</v>
+        <v>187.509006</v>
       </c>
       <c r="I22">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="J22">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N22">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q22">
-        <v>17.09624612072322</v>
+        <v>52.50029240626199</v>
       </c>
       <c r="R22">
-        <v>153.866215086509</v>
+        <v>472.5026316563579</v>
       </c>
       <c r="S22">
-        <v>0.0003902003212813631</v>
+        <v>0.001042539450914551</v>
       </c>
       <c r="T22">
-        <v>0.0003902003212813631</v>
+        <v>0.001042539450914551</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>73.35356366666666</v>
+        <v>62.503002</v>
       </c>
       <c r="H23">
-        <v>220.060691</v>
+        <v>187.509006</v>
       </c>
       <c r="I23">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="J23">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N23">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q23">
-        <v>1451.41955449071</v>
+        <v>474.462142437726</v>
       </c>
       <c r="R23">
-        <v>13062.77599041639</v>
+        <v>4270.159281939534</v>
       </c>
       <c r="S23">
-        <v>0.03312682634989873</v>
+        <v>0.009421766599489826</v>
       </c>
       <c r="T23">
-        <v>0.03312682634989873</v>
+        <v>0.009421766599489824</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>73.35356366666666</v>
+        <v>62.503002</v>
       </c>
       <c r="H24">
-        <v>220.060691</v>
+        <v>187.509006</v>
       </c>
       <c r="I24">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="J24">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N24">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q24">
-        <v>186.3119389163611</v>
+        <v>298.792913431914</v>
       </c>
       <c r="R24">
-        <v>1676.80745024725</v>
+        <v>2689.136220887226</v>
       </c>
       <c r="S24">
-        <v>0.004252335741446522</v>
+        <v>0.005933365046730903</v>
       </c>
       <c r="T24">
-        <v>0.004252335741446522</v>
+        <v>0.005933365046730902</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>73.35356366666666</v>
+        <v>62.503002</v>
       </c>
       <c r="H25">
-        <v>220.060691</v>
+        <v>187.509006</v>
       </c>
       <c r="I25">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="J25">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N25">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q25">
-        <v>32.141184284696</v>
+        <v>10.790955786294</v>
       </c>
       <c r="R25">
-        <v>289.270658562264</v>
+        <v>97.118602076646</v>
       </c>
       <c r="S25">
-        <v>0.0007335821177170403</v>
+        <v>0.0002142844659460278</v>
       </c>
       <c r="T25">
-        <v>0.0007335821177170403</v>
+        <v>0.0002142844659460277</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>129.147616</v>
+        <v>143.4576163333333</v>
       </c>
       <c r="H26">
-        <v>387.442848</v>
+        <v>430.372849</v>
       </c>
       <c r="I26">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="J26">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N26">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O26">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P26">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q26">
-        <v>90.22691555654401</v>
+        <v>234.6029346786622</v>
       </c>
       <c r="R26">
-        <v>812.0422400088961</v>
+        <v>2111.42641210796</v>
       </c>
       <c r="S26">
-        <v>0.002059315898342984</v>
+        <v>0.004658694332789319</v>
       </c>
       <c r="T26">
-        <v>0.002059315898342984</v>
+        <v>0.004658694332789318</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>129.147616</v>
+        <v>143.4576163333333</v>
       </c>
       <c r="H27">
-        <v>387.442848</v>
+        <v>430.372849</v>
       </c>
       <c r="I27">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="J27">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N27">
         <v>137.749091</v>
       </c>
       <c r="O27">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P27">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q27">
-        <v>5929.988902939018</v>
+        <v>6587.052082314474</v>
       </c>
       <c r="R27">
-        <v>53369.90012645117</v>
+        <v>59283.46874083026</v>
       </c>
       <c r="S27">
-        <v>0.1353445404787983</v>
+        <v>0.1308042554868245</v>
       </c>
       <c r="T27">
-        <v>0.1353445404787983</v>
+        <v>0.1308042554868245</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>129.147616</v>
+        <v>143.4576163333333</v>
       </c>
       <c r="H28">
-        <v>387.442848</v>
+        <v>430.372849</v>
       </c>
       <c r="I28">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="J28">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N28">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O28">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P28">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q28">
-        <v>30.09996131986134</v>
+        <v>120.4992810650174</v>
       </c>
       <c r="R28">
-        <v>270.899651878752</v>
+        <v>1084.493529585157</v>
       </c>
       <c r="S28">
-        <v>0.0006869937701311969</v>
+        <v>0.002392848659679798</v>
       </c>
       <c r="T28">
-        <v>0.0006869937701311969</v>
+        <v>0.002392848659679797</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>129.147616</v>
+        <v>143.4576163333333</v>
       </c>
       <c r="H29">
-        <v>387.442848</v>
+        <v>430.372849</v>
       </c>
       <c r="I29">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="J29">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N29">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O29">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P29">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q29">
-        <v>2555.395619632821</v>
+        <v>1088.991021495618</v>
       </c>
       <c r="R29">
-        <v>22998.5605766954</v>
+        <v>9800.919193460561</v>
       </c>
       <c r="S29">
-        <v>0.05832369192281692</v>
+        <v>0.02162494815867926</v>
       </c>
       <c r="T29">
-        <v>0.05832369192281692</v>
+        <v>0.02162494815867926</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>129.147616</v>
+        <v>143.4576163333333</v>
       </c>
       <c r="H30">
-        <v>387.442848</v>
+        <v>430.372849</v>
       </c>
       <c r="I30">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="J30">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N30">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O30">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P30">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q30">
-        <v>328.0241823386667</v>
+        <v>685.7929662039977</v>
       </c>
       <c r="R30">
-        <v>2952.217641048</v>
+        <v>6172.136695835979</v>
       </c>
       <c r="S30">
-        <v>0.007486739511865989</v>
+        <v>0.01361832838748341</v>
       </c>
       <c r="T30">
-        <v>0.007486739511865989</v>
+        <v>0.01361832838748341</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>129.147616</v>
+        <v>143.4576163333333</v>
       </c>
       <c r="H31">
-        <v>387.442848</v>
+        <v>430.372849</v>
       </c>
       <c r="I31">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="J31">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N31">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O31">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P31">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q31">
-        <v>56.58835260748799</v>
+        <v>24.767527087101</v>
       </c>
       <c r="R31">
-        <v>509.295173467392</v>
+        <v>222.907743783909</v>
       </c>
       <c r="S31">
-        <v>0.001291557995381199</v>
+        <v>0.000491828195738158</v>
       </c>
       <c r="T31">
-        <v>0.001291557995381199</v>
+        <v>0.0004918281957381579</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>80.92074566666666</v>
+        <v>203.20046</v>
       </c>
       <c r="H32">
-        <v>242.762237</v>
+        <v>609.6013799999999</v>
       </c>
       <c r="I32">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="J32">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N32">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O32">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P32">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q32">
-        <v>56.53398422808601</v>
+        <v>332.3031949261334</v>
       </c>
       <c r="R32">
-        <v>508.805858052774</v>
+        <v>2990.7287543352</v>
       </c>
       <c r="S32">
-        <v>0.00129031710548289</v>
+        <v>0.006598804968448529</v>
       </c>
       <c r="T32">
-        <v>0.00129031710548289</v>
+        <v>0.006598804968448527</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>80.92074566666666</v>
+        <v>203.20046</v>
       </c>
       <c r="H33">
-        <v>242.762237</v>
+        <v>609.6013799999999</v>
       </c>
       <c r="I33">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="J33">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N33">
         <v>137.749091</v>
       </c>
       <c r="O33">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P33">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q33">
-        <v>3715.586386208507</v>
+        <v>9330.226218593954</v>
       </c>
       <c r="R33">
-        <v>33440.27747587656</v>
+        <v>83972.03596734558</v>
       </c>
       <c r="S33">
-        <v>0.08480358737289202</v>
+        <v>0.1852776141429888</v>
       </c>
       <c r="T33">
-        <v>0.08480358737289202</v>
+        <v>0.1852776141429887</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>80.92074566666666</v>
+        <v>203.20046</v>
       </c>
       <c r="H34">
-        <v>242.762237</v>
+        <v>609.6013799999999</v>
       </c>
       <c r="I34">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="J34">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N34">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O34">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P34">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q34">
-        <v>18.85990148312922</v>
+        <v>170.6811389169266</v>
       </c>
       <c r="R34">
-        <v>169.739113348163</v>
+        <v>1536.13025025234</v>
       </c>
       <c r="S34">
-        <v>0.0004304535373488508</v>
+        <v>0.003389349138685919</v>
       </c>
       <c r="T34">
-        <v>0.0004304535373488508</v>
+        <v>0.003389349138685918</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>80.92074566666666</v>
+        <v>203.20046</v>
       </c>
       <c r="H35">
-        <v>242.762237</v>
+        <v>609.6013799999999</v>
       </c>
       <c r="I35">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="J35">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N35">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O35">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P35">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q35">
-        <v>1601.148557121036</v>
+        <v>1542.500720140313</v>
       </c>
       <c r="R35">
-        <v>14410.33701408932</v>
+        <v>13882.50648126282</v>
       </c>
       <c r="S35">
-        <v>0.03654420256915379</v>
+        <v>0.03063064566129109</v>
       </c>
       <c r="T35">
-        <v>0.03654420256915379</v>
+        <v>0.03063064566129108</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>80.92074566666666</v>
+        <v>203.20046</v>
       </c>
       <c r="H36">
-        <v>242.762237</v>
+        <v>609.6013799999999</v>
       </c>
       <c r="I36">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="J36">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N36">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O36">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P36">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q36">
-        <v>205.5319505978611</v>
+        <v>971.39106141022</v>
       </c>
       <c r="R36">
-        <v>1849.78755538075</v>
+        <v>8742.51955269198</v>
       </c>
       <c r="S36">
-        <v>0.004691008341278957</v>
+        <v>0.01928967358789648</v>
       </c>
       <c r="T36">
-        <v>0.004691008341278957</v>
+        <v>0.01928967358789647</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>80.92074566666666</v>
+        <v>203.20046</v>
       </c>
       <c r="H37">
-        <v>242.762237</v>
+        <v>609.6013799999999</v>
       </c>
       <c r="I37">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="J37">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N37">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O37">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P37">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q37">
-        <v>35.45688128727199</v>
+        <v>35.08194981762</v>
       </c>
       <c r="R37">
-        <v>319.111931585448</v>
+        <v>315.7375483585799</v>
       </c>
       <c r="S37">
-        <v>0.000809258732720175</v>
+        <v>0.000696649771335578</v>
       </c>
       <c r="T37">
-        <v>0.000809258732720175</v>
+        <v>0.0006966497713355778</v>
       </c>
     </row>
   </sheetData>
